--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2101149.671931137</v>
+        <v>-2104006.543065803</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>182.5570120086805</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.3967239860416</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
+        <v>154.1490678959586</v>
+      </c>
+      <c r="W3" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.40935536738363</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="V4" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>182.8811435854059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>299.9154604304228</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>12.70889480163085</v>
       </c>
       <c r="H5" t="n">
-        <v>299.915460430423</v>
+        <v>299.9154604304228</v>
       </c>
       <c r="I5" t="n">
-        <v>110.4767683580352</v>
+        <v>94.6677182515057</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>149.9128787522683</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1381454907562</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>299.915460430423</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>299.9154604304228</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9556889604145</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.99074626324771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.9048709334797</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>202.1149530560502</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>32.78220362288616</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>6.34562581824806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.460599772379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.09912598139591</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>124.9778162514039</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.9742347357805</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2555652540334</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>49.9352332793126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>64.78910094740696</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>7.537656044413952</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.02299979179832</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>178.6663806161035</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>134.1343006978462</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>247.4632266083341</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>99.01360035611813</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>54.32649042089666</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.3687739767479</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>251.1196674903453</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>114.6638016462585</v>
       </c>
       <c r="T25" t="n">
-        <v>178.3456785990311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.6562577500929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2852,13 +2852,13 @@
         <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>102.9630220374172</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>184.5018925095679</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659134</v>
+        <v>199.403069204296</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659134</v>
+        <v>199.403069204296</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659134</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>210.8831693494285</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
-        <v>210.8831693494285</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823983</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823983</v>
+        <v>388.822854220781</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823983</v>
+        <v>388.822854220781</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823983</v>
+        <v>199.403069204296</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823983</v>
+        <v>199.403069204296</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823983</v>
+        <v>199.403069204296</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659134</v>
+        <v>199.403069204296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158255</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487954</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323105</v>
+        <v>253.6933590155548</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323105</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323105</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158255</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8429936158255</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C4" t="n">
-        <v>181.8429936158255</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D4" t="n">
-        <v>181.8429936158255</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E4" t="n">
-        <v>181.8429936158255</v>
+        <v>223.3496850499174</v>
       </c>
       <c r="F4" t="n">
-        <v>181.8429936158255</v>
+        <v>76.45973755200706</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>76.45973755200706</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>76.45973755200706</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340734</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777544</v>
+        <v>587.3641452287303</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143046</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U4" t="n">
+        <v>750.1023486652805</v>
+      </c>
+      <c r="V4" t="n">
+        <v>750.1023486652805</v>
+      </c>
+      <c r="W4" t="n">
+        <v>560.6825636487955</v>
+      </c>
+      <c r="X4" t="n">
+        <v>560.6825636487955</v>
+      </c>
+      <c r="Y4" t="n">
         <v>371.2627786323105</v>
-      </c>
-      <c r="V4" t="n">
-        <v>181.8429936158255</v>
-      </c>
-      <c r="W4" t="n">
-        <v>181.8429936158255</v>
-      </c>
-      <c r="X4" t="n">
-        <v>181.8429936158255</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>181.8429936158255</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>643.042037760905</v>
+        <v>745.2897819411951</v>
       </c>
       <c r="C5" t="n">
-        <v>458.3136098968586</v>
+        <v>745.2897819411951</v>
       </c>
       <c r="D5" t="n">
-        <v>458.3136098968586</v>
+        <v>442.3448724155155</v>
       </c>
       <c r="E5" t="n">
-        <v>458.3136098968586</v>
+        <v>442.3448724155155</v>
       </c>
       <c r="F5" t="n">
-        <v>451.3681091476552</v>
+        <v>435.399371666312</v>
       </c>
       <c r="G5" t="n">
-        <v>438.5308416712604</v>
+        <v>422.5621041899172</v>
       </c>
       <c r="H5" t="n">
-        <v>135.5859321455805</v>
+        <v>119.6171946642376</v>
       </c>
       <c r="I5" t="n">
-        <v>23.99323683443384</v>
+        <v>23.99323683443382</v>
       </c>
       <c r="J5" t="n">
-        <v>62.70545777823872</v>
+        <v>62.70545777823884</v>
       </c>
       <c r="K5" t="n">
-        <v>171.4635601109389</v>
+        <v>171.463560110939</v>
       </c>
       <c r="L5" t="n">
         <v>343.2893649618527</v>
       </c>
       <c r="M5" t="n">
-        <v>566.1481175907712</v>
+        <v>566.1481175907711</v>
       </c>
       <c r="N5" t="n">
-        <v>797.2267662077112</v>
+        <v>797.2267662077111</v>
       </c>
       <c r="O5" t="n">
         <v>1002.092520230223</v>
       </c>
       <c r="P5" t="n">
-        <v>1142.43970069275</v>
+        <v>1142.439700692749</v>
       </c>
       <c r="Q5" t="n">
-        <v>1199.661841721692</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="R5" t="n">
-        <v>1199.661841721692</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="S5" t="n">
-        <v>1199.661841721692</v>
+        <v>1048.234691466875</v>
       </c>
       <c r="T5" t="n">
-        <v>1199.661841721692</v>
+        <v>1048.234691466875</v>
       </c>
       <c r="U5" t="n">
-        <v>945.9869472865848</v>
+        <v>1048.234691466875</v>
       </c>
       <c r="V5" t="n">
-        <v>643.042037760905</v>
+        <v>1048.234691466875</v>
       </c>
       <c r="W5" t="n">
-        <v>643.042037760905</v>
+        <v>745.2897819411951</v>
       </c>
       <c r="X5" t="n">
-        <v>643.042037760905</v>
+        <v>745.2897819411951</v>
       </c>
       <c r="Y5" t="n">
-        <v>643.042037760905</v>
+        <v>745.2897819411951</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183.2306918398893</v>
+        <v>790.4816675032761</v>
       </c>
       <c r="C6" t="n">
-        <v>183.2306918398893</v>
+        <v>616.0286382221491</v>
       </c>
       <c r="D6" t="n">
-        <v>183.2306918398893</v>
+        <v>467.0942285608978</v>
       </c>
       <c r="E6" t="n">
-        <v>23.99323683443384</v>
+        <v>307.8567735554423</v>
       </c>
       <c r="F6" t="n">
-        <v>23.99323683443384</v>
+        <v>161.3222155823273</v>
       </c>
       <c r="G6" t="n">
-        <v>23.99323683443384</v>
+        <v>23.99323683443382</v>
       </c>
       <c r="H6" t="n">
-        <v>23.99323683443384</v>
+        <v>23.99323683443382</v>
       </c>
       <c r="I6" t="n">
-        <v>23.99323683443384</v>
+        <v>23.99323683443382</v>
       </c>
       <c r="J6" t="n">
-        <v>28.23212346630805</v>
+        <v>28.23212346630802</v>
       </c>
       <c r="K6" t="n">
-        <v>251.5223153098885</v>
+        <v>113.6318806050347</v>
       </c>
       <c r="L6" t="n">
-        <v>412.6753689226756</v>
+        <v>274.7849342178218</v>
       </c>
       <c r="M6" t="n">
-        <v>620.0902495625863</v>
+        <v>550.4871240004239</v>
       </c>
       <c r="N6" t="n">
-        <v>847.4034298265434</v>
+        <v>847.4034298265425</v>
       </c>
       <c r="O6" t="n">
         <v>1033.130785334926</v>
       </c>
       <c r="P6" t="n">
-        <v>1162.860295900024</v>
+        <v>1162.860295900023</v>
       </c>
       <c r="Q6" t="n">
-        <v>1199.661841721692</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="R6" t="n">
-        <v>1185.529774789119</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="S6" t="n">
-        <v>1038.151117280553</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="T6" t="n">
-        <v>1038.151117280553</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="U6" t="n">
-        <v>833.9945990421188</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="V6" t="n">
-        <v>598.8424908103761</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="W6" t="n">
-        <v>598.8424908103761</v>
+        <v>1199.661841721691</v>
       </c>
       <c r="X6" t="n">
-        <v>390.9909906048433</v>
+        <v>991.8103415161584</v>
       </c>
       <c r="Y6" t="n">
-        <v>183.2306918398893</v>
+        <v>958.697004523344</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.4967407677046</v>
+        <v>339.6439312429445</v>
       </c>
       <c r="C7" t="n">
-        <v>292.5605578397978</v>
+        <v>339.6439312429445</v>
       </c>
       <c r="D7" t="n">
-        <v>292.5605578397978</v>
+        <v>189.5272918306087</v>
       </c>
       <c r="E7" t="n">
-        <v>292.5605578397978</v>
+        <v>41.61419824821562</v>
       </c>
       <c r="F7" t="n">
-        <v>145.6706103418874</v>
+        <v>35.2044751994802</v>
       </c>
       <c r="G7" t="n">
-        <v>145.6706103418874</v>
+        <v>35.2044751994802</v>
       </c>
       <c r="H7" t="n">
-        <v>145.6706103418874</v>
+        <v>35.2044751994802</v>
       </c>
       <c r="I7" t="n">
-        <v>23.99323683443384</v>
+        <v>35.2044751994802</v>
       </c>
       <c r="J7" t="n">
-        <v>23.99323683443384</v>
+        <v>23.99323683443382</v>
       </c>
       <c r="K7" t="n">
         <v>135.7731927788543</v>
@@ -4735,10 +4735,10 @@
         <v>554.0889252722276</v>
       </c>
       <c r="N7" t="n">
-        <v>774.0478299776222</v>
+        <v>774.0478299776221</v>
       </c>
       <c r="O7" t="n">
-        <v>961.1991843389369</v>
+        <v>961.1991843389367</v>
       </c>
       <c r="P7" t="n">
         <v>1097.818817161698</v>
@@ -4747,28 +4747,28 @@
         <v>1108.972089218904</v>
       </c>
       <c r="R7" t="n">
-        <v>982.7318707831424</v>
+        <v>1108.972089218904</v>
       </c>
       <c r="S7" t="n">
-        <v>982.7318707831424</v>
+        <v>1108.972089218904</v>
       </c>
       <c r="T7" t="n">
-        <v>982.7318707831424</v>
+        <v>883.7455894857919</v>
       </c>
       <c r="U7" t="n">
-        <v>693.5848351730076</v>
+        <v>883.7455894857919</v>
       </c>
       <c r="V7" t="n">
-        <v>643.1452055979444</v>
+        <v>629.0611012799051</v>
       </c>
       <c r="W7" t="n">
-        <v>643.1452055979444</v>
+        <v>339.6439312429445</v>
       </c>
       <c r="X7" t="n">
-        <v>643.1452055979444</v>
+        <v>339.6439312429445</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.1452055979444</v>
+        <v>339.6439312429445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1395.54287970619</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>1009.754627107945</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>598.768722318338</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>183.0639720426268</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>2430.026326942369</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1753.80857831294</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>127.7128549540963</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>312.4344762351462</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>607.1380332666179</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>970.4000522258378</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.4550643866932</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C10" t="n">
-        <v>359.4550643866932</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>359.4550643866932</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1259.34628070294</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>970.2279432067783</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671838</v>
+        <v>715.5434550008914</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302233</v>
+        <v>426.1262849639308</v>
       </c>
       <c r="X10" t="n">
-        <v>580.2476435302233</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.4550643866932</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2061.57335286348</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1772.498126207678</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1517.813638001792</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1228.396467964831</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.406917066814</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.4413279836774</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5051450557705</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>551.263652184387</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2097.048807754114</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.973581098312</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1553.289092892425</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.871922855465</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.882371957447</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.0897928139171</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096665</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952728</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>148.6919058973624</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.095357967755</v>
       </c>
       <c r="T25" t="n">
-        <v>2199.770229732631</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U25" t="n">
-        <v>1910.695003076829</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V25" t="n">
-        <v>1656.010514870942</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3274571940295</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5348780504994</v>
       </c>
     </row>
     <row r="26">
@@ -6206,61 +6206,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6488,7 +6488,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,13 +7351,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>107.2331895657671</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777628</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.65006546197381</v>
+        <v>52.65006546197384</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>139.2832673786401</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>68.97707994211254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>70.30618743652695</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>14.25823202432825</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>172.1260296120025</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>6.701109244016447</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>74.03491062076642</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.3766453830444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82939802661943</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378003</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750794</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>83.27114962944205</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.05977172825686</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>79.63321623493862</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.9259388694759423</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="T25" t="n">
-        <v>39.05977172825712</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.92839560200186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>45.65245098079511</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>101.6825818796762</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772864</v>
+        <v>67700.85635772865</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900063</v>
@@ -26335,25 +26335,25 @@
         <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>82104.17698642831</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>124409.1910170491</v>
+        <v>124409.1910170489</v>
       </c>
       <c r="D3" t="n">
         <v>353194.32804599</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>28925.55690223576</v>
+        <v>28925.55690223558</v>
       </c>
       <c r="L3" t="n">
-        <v>105648.0699388665</v>
+        <v>105648.0699388666</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.105427357601002e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195261.4364935755</v>
+        <v>195261.4364935756</v>
       </c>
       <c r="C4" t="n">
-        <v>244130.597205041</v>
+        <v>244130.5972050411</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184278</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184283</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184276</v>
       </c>
       <c r="L4" t="n">
         <v>21597.66737493624</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493625</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493627</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>65928.22056882462</v>
+        <v>65928.2205688246</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-775903.283068306</v>
+        <v>-776263.3660840236</v>
       </c>
       <c r="C6" t="n">
-        <v>-352363.8318044864</v>
+        <v>-352363.8318044863</v>
       </c>
       <c r="D6" t="n">
         <v>-509183.1541973446</v>
       </c>
       <c r="E6" t="n">
-        <v>-541500.1195912948</v>
+        <v>-541534.8575167308</v>
       </c>
       <c r="F6" t="n">
-        <v>-34014.6779667493</v>
+        <v>-34049.41589218492</v>
       </c>
       <c r="G6" t="n">
-        <v>-34014.6779667493</v>
+        <v>-34049.41589218493</v>
       </c>
       <c r="H6" t="n">
-        <v>-34014.67796674925</v>
+        <v>-34049.41589218492</v>
       </c>
       <c r="I6" t="n">
-        <v>-34014.6779667493</v>
+        <v>-34049.41589218497</v>
       </c>
       <c r="J6" t="n">
-        <v>-83079.62269529386</v>
+        <v>-83114.36062072964</v>
       </c>
       <c r="K6" t="n">
-        <v>-62940.23486898507</v>
+        <v>-62974.97279442055</v>
       </c>
       <c r="L6" t="n">
-        <v>-148305.6761812898</v>
+        <v>-148305.6761812899</v>
       </c>
       <c r="M6" t="n">
-        <v>-175264.8999713498</v>
+        <v>-175264.8999713499</v>
       </c>
       <c r="N6" t="n">
-        <v>-42657.60624242325</v>
+        <v>-42657.60624242322</v>
       </c>
       <c r="O6" t="n">
-        <v>-42657.60624242338</v>
+        <v>-42657.60624242324</v>
       </c>
       <c r="P6" t="n">
-        <v>-42657.60624242321</v>
+        <v>-42657.60624242333</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>645.2183749841701</v>
+        <v>645.2183749841699</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>299.915460430423</v>
+        <v>299.9154604304228</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.101341240428155e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>96.74843407126525</v>
+        <v>96.74843407126514</v>
       </c>
       <c r="D3" t="n">
         <v>288.8465171333692</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3898732641029</v>
+        <v>112.3898732641027</v>
       </c>
       <c r="D4" t="n">
-        <v>340.6693716696158</v>
+        <v>340.6693716696159</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641034</v>
+        <v>112.3898732641025</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696158</v>
+        <v>340.6693716696161</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641029</v>
+        <v>112.3898732641027</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696158</v>
+        <v>340.6693716696159</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>66.19176068304836</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.33570610668914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>7.535961812220989</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681169</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>78.65151925346663</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>88.29786440348303</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,22 +27588,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.7394943271302</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>31.05906618577467</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>182.3917481856016</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>54.76758119026016</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.99514999566923</v>
+        <v>12.99514999566946</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.80905010652948</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>149.9128787522683</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>211.7413030857667</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1381454907562</v>
       </c>
       <c r="V5" t="n">
-        <v>27.83679803971188</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>49.32550828699021</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9556889604145</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.83194554107058</v>
+        <v>98.8319455410706</v>
       </c>
       <c r="I6" t="n">
-        <v>41.61395130777606</v>
+        <v>41.61395130777607</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.99074626324773</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.9048709334797</v>
       </c>
       <c r="T6" t="n">
         <v>194.5708071230249</v>
       </c>
       <c r="U6" t="n">
-        <v>23.7351245378986</v>
+        <v>225.8500775939488</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>172.9004921544182</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>139.0754222046832</v>
       </c>
       <c r="G7" t="n">
         <v>166.8274708134053</v>
@@ -27792,10 +27792,10 @@
         <v>151.8825238068737</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.460599772379</v>
       </c>
       <c r="J7" t="n">
-        <v>11.0991259813959</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>124.9778162514039</v>
       </c>
       <c r="S7" t="n">
         <v>203.739817301814</v>
       </c>
       <c r="T7" t="n">
-        <v>222.9742347357805</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2555652540334</v>
       </c>
       <c r="V7" t="n">
-        <v>202.2024100445154</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>236.2294516149984</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>362.1934446340551</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>112.4109628547708</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.08231538110849</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.712148652564841e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,10 +29335,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31279,40 +31279,40 @@
         <v>2.593842713504199</v>
       </c>
       <c r="H5" t="n">
-        <v>26.56419168967489</v>
+        <v>26.56419168967488</v>
       </c>
       <c r="I5" t="n">
-        <v>99.99912121237074</v>
+        <v>99.99912121237072</v>
       </c>
       <c r="J5" t="n">
         <v>220.1491580052772</v>
       </c>
       <c r="K5" t="n">
-        <v>329.9465200679101</v>
+        <v>329.94652006791</v>
       </c>
       <c r="L5" t="n">
-        <v>409.3278340113143</v>
+        <v>409.3278340113142</v>
       </c>
       <c r="M5" t="n">
         <v>455.4560843675945</v>
       </c>
       <c r="N5" t="n">
-        <v>462.8258399773384</v>
+        <v>462.8258399773383</v>
       </c>
       <c r="O5" t="n">
-        <v>437.033316494931</v>
+        <v>437.0333164949309</v>
       </c>
       <c r="P5" t="n">
         <v>372.997824505296</v>
       </c>
       <c r="Q5" t="n">
-        <v>280.1058323279268</v>
+        <v>280.1058323279267</v>
       </c>
       <c r="R5" t="n">
         <v>162.9354723521583</v>
       </c>
       <c r="S5" t="n">
-        <v>59.107190833977</v>
+        <v>59.10719083397699</v>
       </c>
       <c r="T5" t="n">
         <v>11.35454647836464</v>
@@ -31367,16 +31367,16 @@
         <v>131.1193303352265</v>
       </c>
       <c r="K6" t="n">
-        <v>224.1038199225679</v>
+        <v>224.1038199225678</v>
       </c>
       <c r="L6" t="n">
-        <v>301.3352420150127</v>
+        <v>301.3352420150126</v>
       </c>
       <c r="M6" t="n">
         <v>351.6440143663726</v>
       </c>
       <c r="N6" t="n">
-        <v>360.9509850772293</v>
+        <v>360.9509850772292</v>
       </c>
       <c r="O6" t="n">
         <v>330.1996338468516</v>
@@ -31385,19 +31385,19 @@
         <v>265.0143170760452</v>
       </c>
       <c r="Q6" t="n">
-        <v>177.1550526937669</v>
+        <v>177.1550526937668</v>
       </c>
       <c r="R6" t="n">
-        <v>86.16708788939542</v>
+        <v>86.1670878893954</v>
       </c>
       <c r="S6" t="n">
-        <v>25.7783001703581</v>
+        <v>25.77830017035809</v>
       </c>
       <c r="T6" t="n">
         <v>5.593921571796717</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09130448702606184</v>
+        <v>0.09130448702606182</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31443,13 +31443,13 @@
         <v>34.98987515487926</v>
       </c>
       <c r="J7" t="n">
-        <v>82.26005413527687</v>
+        <v>82.26005413527686</v>
       </c>
       <c r="K7" t="n">
         <v>135.1785382343884</v>
       </c>
       <c r="L7" t="n">
-        <v>172.9819885982151</v>
+        <v>172.981988598215</v>
       </c>
       <c r="M7" t="n">
         <v>182.3852531123285</v>
@@ -31458,25 +31458,25 @@
         <v>178.0485394444023</v>
       </c>
       <c r="O7" t="n">
-        <v>164.4566441680964</v>
+        <v>164.4566441680963</v>
       </c>
       <c r="P7" t="n">
-        <v>140.7210698490065</v>
+        <v>140.7210698490064</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.42797462260968</v>
+        <v>97.42797462260965</v>
       </c>
       <c r="R7" t="n">
-        <v>52.31557512576564</v>
+        <v>52.31557512576563</v>
       </c>
       <c r="S7" t="n">
         <v>20.27678073515825</v>
       </c>
       <c r="T7" t="n">
-        <v>4.971354692500981</v>
+        <v>4.97135469250098</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06346410245745941</v>
+        <v>0.0634641024574594</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503486</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576924</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,10 +32564,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>516.654215558583</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>123.3445726863787</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663201</v>
@@ -34872,7 +34872,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068246</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.10325347859094</v>
+        <v>39.10325347859091</v>
       </c>
       <c r="K5" t="n">
         <v>109.8566690229295</v>
@@ -34945,16 +34945,16 @@
         <v>225.1098511403218</v>
       </c>
       <c r="N5" t="n">
-        <v>233.4127763807475</v>
+        <v>233.4127763807474</v>
       </c>
       <c r="O5" t="n">
-        <v>206.9351050732443</v>
+        <v>206.9351050732442</v>
       </c>
       <c r="P5" t="n">
-        <v>141.7648287500265</v>
+        <v>141.7648287500264</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.80014245347732</v>
+        <v>57.80014245347726</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>4.2817036685598</v>
       </c>
       <c r="K6" t="n">
-        <v>225.5456483268489</v>
+        <v>86.2623809482088</v>
       </c>
       <c r="L6" t="n">
-        <v>162.7808622351385</v>
+        <v>162.7808622351384</v>
       </c>
       <c r="M6" t="n">
-        <v>209.5099804443543</v>
+        <v>278.4870603864668</v>
       </c>
       <c r="N6" t="n">
-        <v>229.609272993896</v>
+        <v>299.9154604304228</v>
       </c>
       <c r="O6" t="n">
-        <v>187.6033894024072</v>
+        <v>187.6033894024071</v>
       </c>
       <c r="P6" t="n">
         <v>131.039909661715</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.17327860774535</v>
+        <v>37.17327860774532</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>137.9996291138999</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.2659313709153</v>
+        <v>11.26593137091527</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>77.23845291524565</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>388.6189266346379</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059041</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778182</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
